--- a/TestCase Automation - Minerva.xlsx
+++ b/TestCase Automation - Minerva.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="368">
   <si>
     <t>ID TestScenario</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>07/13/2020 22:20:44</t>
+  </si>
+  <si>
+    <t>07/13/2020 22:36:48</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="378">
+  <fills count="412">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2887,6 +2890,176 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -3112,7 +3285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3365,6 +3538,23 @@
     <xf numFmtId="0" fontId="0" fillId="373" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="375" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="377" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="379" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="381" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="383" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="385" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="387" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="389" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="391" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="393" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="395" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="397" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="399" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="401" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="403" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="405" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="407" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="409" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="411" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4507,7 +4697,7 @@
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="207" t="s">
+      <c r="H3" s="230" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4531,7 +4721,7 @@
         <v>110</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="208" t="s">
+      <c r="H4" s="231" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4555,7 +4745,7 @@
         <v>58</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="209" t="s">
+      <c r="H5" s="232" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4579,7 +4769,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="210" t="s">
+      <c r="H6" s="233" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4603,7 +4793,7 @@
         <v>58</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="211" t="s">
+      <c r="H7" s="234" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4627,7 +4817,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="212" t="s">
+      <c r="H8" s="235" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4651,7 +4841,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="213" t="s">
+      <c r="H9" s="236" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4677,7 +4867,7 @@
       <c r="G10" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="H10" s="214" t="s">
+      <c r="H10" s="237" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4697,7 +4887,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="215" t="s">
+      <c r="H11" s="238" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4721,7 +4911,7 @@
         <v>318</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" t="s" s="216">
+      <c r="H12" t="s" s="239">
         <v>118</v>
       </c>
     </row>
@@ -4747,7 +4937,7 @@
       <c r="G13" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H13" s="217" t="s">
+      <c r="H13" s="240" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4767,7 +4957,7 @@
         <v>37</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="218" t="s">
+      <c r="H14" s="241" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4793,7 +4983,7 @@
       <c r="G15" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="219" t="s">
+      <c r="H15" s="242" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4813,7 +5003,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="220" t="s">
+      <c r="H16" s="243" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4839,8 +5029,8 @@
       <c r="G17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H17" s="221" t="s">
-        <v>118</v>
+      <c r="H17" s="244" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -5047,14 +5237,14 @@
       <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="228" t="s">
+      <c r="D2" s="245" t="s">
         <v>362</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="229" t="s">
-        <v>366</v>
+      <c r="F2" s="246" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase Automation - Minerva.xlsx
+++ b/TestCase Automation - Minerva.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>ID TestScenario</t>
   </si>
@@ -1127,6 +1127,12 @@
   </si>
   <si>
     <t>07/13/2020 22:36:48</t>
+  </si>
+  <si>
+    <t>07/14/2020 09:48:33</t>
+  </si>
+  <si>
+    <t>07/14/2020 10:50:13</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="412">
+  <fills count="504">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3060,6 +3066,466 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
       </patternFill>
     </fill>
     <fill>
@@ -3285,7 +3751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3555,6 +4021,52 @@
     <xf numFmtId="0" fontId="0" fillId="407" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="409" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="411" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="413" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="415" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="417" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="419" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="421" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="423" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="425" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="427" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="429" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="431" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="433" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="435" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="437" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="439" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="441" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="443" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="445" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="447" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="449" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="451" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="453" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="455" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="457" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="459" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="461" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="463" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="465" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="467" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="469" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="471" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="473" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="475" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="477" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="479" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="481" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="483" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="485" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="487" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="489" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="491" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="493" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="495" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="497" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="499" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="501" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="503" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4697,7 +5209,7 @@
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="230" t="s">
+      <c r="H3" s="270" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4721,7 +5233,7 @@
         <v>110</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="231" t="s">
+      <c r="H4" s="271" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4745,7 +5257,7 @@
         <v>58</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="232" t="s">
+      <c r="H5" s="272" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4769,7 +5281,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="233" t="s">
+      <c r="H6" s="273" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4793,7 +5305,7 @@
         <v>58</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="234" t="s">
+      <c r="H7" s="274" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4817,7 +5329,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="235" t="s">
+      <c r="H8" s="275" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4841,7 +5353,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="236" t="s">
+      <c r="H9" s="276" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4867,7 +5379,7 @@
       <c r="G10" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="H10" s="237" t="s">
+      <c r="H10" s="277" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4887,7 +5399,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="238" t="s">
+      <c r="H11" s="278" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4911,7 +5423,7 @@
         <v>318</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" t="s" s="239">
+      <c r="H12" t="s" s="279">
         <v>118</v>
       </c>
     </row>
@@ -4937,7 +5449,7 @@
       <c r="G13" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H13" s="240" t="s">
+      <c r="H13" s="280" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4957,7 +5469,7 @@
         <v>37</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="241" t="s">
+      <c r="H14" s="281" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4983,7 +5495,7 @@
       <c r="G15" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="242" t="s">
+      <c r="H15" s="282" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5003,7 +5515,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="243" t="s">
+      <c r="H16" s="283" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5029,8 +5541,8 @@
       <c r="G17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H17" s="244" t="s">
-        <v>362</v>
+      <c r="H17" s="284" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -5049,7 +5561,7 @@
         <v>37</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="222" t="s">
+      <c r="H18" s="285" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5075,7 +5587,7 @@
       <c r="G19" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H19" s="223" t="s">
+      <c r="H19" s="286" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5095,7 +5607,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="224" t="s">
+      <c r="H20" s="287" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5119,7 +5631,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="225" t="s">
+      <c r="H21" s="288" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5143,7 +5655,7 @@
         <v>58</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="226" t="s">
+      <c r="H22" s="289" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5163,7 +5675,7 @@
         <v>351</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="227" t="s">
+      <c r="H23" s="290" t="s">
         <v>362</v>
       </c>
     </row>
@@ -5237,14 +5749,14 @@
       <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="245" t="s">
+      <c r="D2" s="291" t="s">
         <v>362</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="246" t="s">
-        <v>367</v>
+      <c r="F2" s="292" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase Automation - Minerva.xlsx
+++ b/TestCase Automation - Minerva.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="372">
   <si>
     <t>ID TestScenario</t>
   </si>
@@ -1133,6 +1133,12 @@
   </si>
   <si>
     <t>07/14/2020 10:50:13</t>
+  </si>
+  <si>
+    <t>07/15/2020 22:29:15</t>
+  </si>
+  <si>
+    <t>07/15/2020 22:31:36</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="504">
+  <fills count="568">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3696,6 +3702,326 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
       </patternFill>
     </fill>
   </fills>
@@ -3751,7 +4077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4067,6 +4393,38 @@
     <xf numFmtId="0" fontId="0" fillId="499" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="501" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="503" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="505" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="507" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="509" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="511" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="513" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="515" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="517" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="519" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="521" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="523" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="525" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="527" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="529" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="531" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="533" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="535" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="537" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="539" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="541" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="543" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="545" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="547" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="549" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="551" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="553" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="555" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="557" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="559" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="561" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="563" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="565" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="567" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5209,7 +5567,7 @@
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="270" t="s">
+      <c r="H3" s="302" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5233,7 +5591,7 @@
         <v>110</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="271" t="s">
+      <c r="H4" s="303" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5257,7 +5615,7 @@
         <v>58</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="272" t="s">
+      <c r="H5" s="304" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5281,7 +5639,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="273" t="s">
+      <c r="H6" s="305" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5305,7 +5663,7 @@
         <v>58</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="274" t="s">
+      <c r="H7" s="306" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5329,7 +5687,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="275" t="s">
+      <c r="H8" s="307" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5353,7 +5711,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="276" t="s">
+      <c r="H9" s="308" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5379,7 +5737,7 @@
       <c r="G10" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="H10" s="277" t="s">
+      <c r="H10" s="309" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5399,7 +5757,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="278" t="s">
+      <c r="H11" s="310" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5423,7 +5781,7 @@
         <v>318</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" t="s" s="279">
+      <c r="H12" t="s" s="311">
         <v>118</v>
       </c>
     </row>
@@ -5449,7 +5807,7 @@
       <c r="G13" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H13" s="280" t="s">
+      <c r="H13" s="312" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5469,7 +5827,7 @@
         <v>37</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="281" t="s">
+      <c r="H14" s="313" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5495,7 +5853,7 @@
       <c r="G15" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="282" t="s">
+      <c r="H15" s="314" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5515,7 +5873,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="283" t="s">
+      <c r="H16" s="315" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5541,7 +5899,7 @@
       <c r="G17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H17" s="284" t="s">
+      <c r="H17" s="316" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5561,7 +5919,7 @@
         <v>37</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="285" t="s">
+      <c r="H18" s="317" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5587,7 +5945,7 @@
       <c r="G19" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H19" s="286" t="s">
+      <c r="H19" s="318" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5607,7 +5965,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="287" t="s">
+      <c r="H20" s="319" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5631,7 +5989,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="288" t="s">
+      <c r="H21" s="320" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5655,7 +6013,7 @@
         <v>58</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="289" t="s">
+      <c r="H22" s="321" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5675,8 +6033,8 @@
         <v>351</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="290" t="s">
-        <v>362</v>
+      <c r="H23" s="322" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5749,14 +6107,14 @@
       <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="291" t="s">
-        <v>362</v>
+      <c r="D2" s="323" t="s">
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="292" t="s">
-        <v>369</v>
+      <c r="F2" s="324" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase Automation - Minerva.xlsx
+++ b/TestCase Automation - Minerva.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="373">
   <si>
     <t>ID TestScenario</t>
   </si>
@@ -1139,6 +1139,9 @@
   </si>
   <si>
     <t>07/15/2020 22:31:36</t>
+  </si>
+  <si>
+    <t>07/15/2020 22:35:08</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="568">
+  <fills count="614">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3792,6 +3795,236 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
       </patternFill>
     </fill>
     <fill>
@@ -4077,7 +4310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4425,6 +4658,29 @@
     <xf numFmtId="0" fontId="0" fillId="563" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="565" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="567" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="569" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="571" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="573" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="575" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="577" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="579" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="581" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="583" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="585" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="587" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="589" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="591" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="593" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="595" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="597" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="599" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="601" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="603" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="605" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="607" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="609" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="611" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="613" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5567,7 +5823,7 @@
       <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="302" t="s">
+      <c r="H3" s="325" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5591,7 +5847,7 @@
         <v>110</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="303" t="s">
+      <c r="H4" s="326" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5615,7 +5871,7 @@
         <v>58</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="304" t="s">
+      <c r="H5" s="327" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5639,7 +5895,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="305" t="s">
+      <c r="H6" s="328" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5663,7 +5919,7 @@
         <v>58</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="306" t="s">
+      <c r="H7" s="329" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5687,7 +5943,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="307" t="s">
+      <c r="H8" s="330" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5711,7 +5967,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="308" t="s">
+      <c r="H9" s="331" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5737,7 +5993,7 @@
       <c r="G10" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="H10" s="309" t="s">
+      <c r="H10" s="332" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5757,7 +6013,7 @@
         <v>37</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="310" t="s">
+      <c r="H11" s="333" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5781,7 +6037,7 @@
         <v>318</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" t="s" s="311">
+      <c r="H12" t="s" s="334">
         <v>118</v>
       </c>
     </row>
@@ -5807,7 +6063,7 @@
       <c r="G13" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H13" s="312" t="s">
+      <c r="H13" s="335" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5827,7 +6083,7 @@
         <v>37</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="313" t="s">
+      <c r="H14" s="336" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5853,7 +6109,7 @@
       <c r="G15" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H15" s="314" t="s">
+      <c r="H15" s="337" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5873,7 +6129,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="315" t="s">
+      <c r="H16" s="338" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5899,7 +6155,7 @@
       <c r="G17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H17" s="316" t="s">
+      <c r="H17" s="339" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5919,7 +6175,7 @@
         <v>37</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="317" t="s">
+      <c r="H18" s="340" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5945,7 +6201,7 @@
       <c r="G19" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H19" s="318" t="s">
+      <c r="H19" s="341" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5965,7 +6221,7 @@
         <v>37</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="319" t="s">
+      <c r="H20" s="342" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5989,7 +6245,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="320" t="s">
+      <c r="H21" s="343" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6013,7 +6269,7 @@
         <v>58</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="321" t="s">
+      <c r="H22" s="344" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6033,7 +6289,7 @@
         <v>351</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="322" t="s">
+      <c r="H23" s="345" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6107,14 +6363,14 @@
       <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="323" t="s">
+      <c r="D2" s="346" t="s">
         <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="324" t="s">
-        <v>371</v>
+      <c r="F2" s="347" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
